--- a/04_memo/map03.xlsx
+++ b/04_memo/map03.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\チーム制作\Graduation\04_memo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5083F1FB-741A-4A2C-84B3-703A690D1D9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9FEE36-F207-4A02-B794-594C660252A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +213,14 @@
       <sz val="11"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -648,7 +656,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -665,6 +673,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -712,7 +723,1118 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="156">
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="gray0625">
@@ -1153,7 +2275,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="T14" sqref="T14:T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1210,13 +2332,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -1258,33 +2380,33 @@
         <v>1</v>
       </c>
       <c r="S4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" s="1">
         <v>1</v>
       </c>
-      <c r="W4" s="1">
+      <c r="W4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -1296,31 +2418,31 @@
         <v>0</v>
       </c>
       <c r="H5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="3">
         <v>1</v>
       </c>
       <c r="M5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="3">
         <v>0</v>
       </c>
       <c r="O5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="3">
         <v>0</v>
@@ -1328,164 +2450,164 @@
       <c r="R5" s="3">
         <v>0</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="3">
         <v>0</v>
       </c>
       <c r="T5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" s="1"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="1">
         <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1">
         <v>1</v>
       </c>
       <c r="S6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U6" s="1">
         <v>0</v>
       </c>
       <c r="V6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" s="1"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
         <v>10</v>
       </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
       <c r="J7" s="1">
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="1">
         <v>0</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>1</v>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
       </c>
       <c r="R7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="1"/>
     </row>
@@ -1497,61 +2619,61 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="5">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>1</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="1">
         <v>1</v>
       </c>
       <c r="N8" s="1">
-        <v>1</v>
-      </c>
-      <c r="O8" s="1">
-        <v>1</v>
-      </c>
-      <c r="P8" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
       </c>
       <c r="R8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="1">
         <v>1</v>
       </c>
       <c r="T8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="1">
         <v>1</v>
@@ -1569,10 +2691,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -1581,49 +2703,49 @@
         <v>0</v>
       </c>
       <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
       </c>
       <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>10</v>
+      </c>
+      <c r="T9" s="3">
         <v>7</v>
       </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>7</v>
-      </c>
-      <c r="P9" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>1</v>
-      </c>
-      <c r="R9" s="4">
-        <v>0</v>
-      </c>
-      <c r="S9" s="1">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
       <c r="U9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" s="1">
         <v>1</v>
@@ -1644,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="D10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -1676,23 +2798,23 @@
       <c r="N10" s="1">
         <v>0</v>
       </c>
-      <c r="O10" s="1">
-        <v>1</v>
-      </c>
-      <c r="P10" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>1</v>
+      <c r="O10" s="4">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
       </c>
       <c r="R10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="1">
         <v>1</v>
       </c>
       <c r="T10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>0</v>
@@ -1716,22 +2838,22 @@
         <v>1</v>
       </c>
       <c r="D11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="4">
-        <v>2</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -1748,23 +2870,23 @@
       <c r="N11" s="1">
         <v>0</v>
       </c>
-      <c r="O11" s="1">
-        <v>1</v>
-      </c>
-      <c r="P11" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>0</v>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>2</v>
       </c>
       <c r="R11" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S11" s="1">
         <v>1</v>
       </c>
       <c r="T11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>1</v>
@@ -1788,19 +2910,19 @@
         <v>0</v>
       </c>
       <c r="D12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -1820,23 +2942,23 @@
       <c r="N12" s="1">
         <v>0</v>
       </c>
-      <c r="O12" s="1">
-        <v>1</v>
-      </c>
-      <c r="P12" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>1</v>
+      <c r="O12" s="5">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
       </c>
       <c r="R12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="1">
         <v>1</v>
       </c>
       <c r="T12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>0</v>
@@ -1857,28 +2979,28 @@
         <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F13" s="4">
         <v>0</v>
       </c>
       <c r="G13" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
@@ -1890,16 +3012,16 @@
         <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1">
-        <v>7</v>
-      </c>
-      <c r="P13" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="O13" s="5">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
       </c>
       <c r="R13" s="4">
         <v>0</v>
@@ -1908,10 +3030,10 @@
         <v>0</v>
       </c>
       <c r="T13" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" s="1">
         <v>1</v>
@@ -1929,61 +3051,61 @@
         <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>1</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="1">
         <v>1</v>
       </c>
       <c r="N14" s="1">
-        <v>1</v>
-      </c>
-      <c r="O14" s="1">
-        <v>1</v>
-      </c>
-      <c r="P14" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
       </c>
       <c r="R14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="1">
         <v>1</v>
       </c>
       <c r="T14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" s="1">
         <v>1</v>
@@ -1995,25 +3117,25 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="4">
         <v>0</v>
@@ -2025,187 +3147,187 @@
         <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="1">
         <v>0</v>
       </c>
-      <c r="O15" s="1">
-        <v>0</v>
-      </c>
-      <c r="P15" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>1</v>
+      <c r="O15" s="4">
+        <v>10</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
       </c>
       <c r="R15" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" s="1"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1">
         <v>1</v>
       </c>
       <c r="I16" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P16" s="1">
         <v>1</v>
       </c>
       <c r="Q16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="1">
         <v>1</v>
       </c>
       <c r="S16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U16" s="1">
         <v>0</v>
       </c>
       <c r="V16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" s="1"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>2</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
         <v>0</v>
       </c>
       <c r="S17" s="1">
         <v>0</v>
       </c>
       <c r="T17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" s="1"/>
     </row>
@@ -2217,13 +3339,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
@@ -2265,18 +3387,18 @@
         <v>1</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="1">
         <v>1</v>
       </c>
-      <c r="W18" s="1">
+      <c r="W18" s="3">
         <v>1</v>
       </c>
       <c r="X18" s="1"/>
@@ -2292,7 +3414,458 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A4:W18">
+  <conditionalFormatting sqref="M4:N4 M6:N10 A12:K16 A18:K18 A17:E17 R6:T10 Q4:T5">
+    <cfRule type="cellIs" dxfId="155" priority="157" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="158" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="159" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="160" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="161" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="162" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="163" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="164" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="165" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="166" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="167" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="168" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="169" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:L4 A11:K11 A6:L10 A5:F5">
+    <cfRule type="cellIs" dxfId="142" priority="144" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="145" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="146" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="147" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="148" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="149" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="150" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="151" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="152" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="153" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="154" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="155" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="156" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11:N16 L18:N18 S17:T17 R11:T16 Q18:T18">
+    <cfRule type="cellIs" dxfId="129" priority="131" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="132" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="133" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="134" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="135" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="136" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="137" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="138" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="139" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="140" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="141" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="142" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="143" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:N5">
+    <cfRule type="cellIs" dxfId="116" priority="118" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="119" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="120" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="121" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="122" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="123" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="124" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="125" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="126" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="127" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="128" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="129" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="130" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:N17 R17">
+    <cfRule type="cellIs" dxfId="103" priority="105" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="106" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="107" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="108" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="109" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="110" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="111" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="112" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="113" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="114" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="115" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="116" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="117" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q6:Q17">
+    <cfRule type="cellIs" dxfId="90" priority="79" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="80" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="81" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="82" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="83" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="84" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="85" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="86" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="87" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="88" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="89" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="90" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="91" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O12:P16 O18:P18">
+    <cfRule type="cellIs" dxfId="77" priority="66" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="67" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="68" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="69" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="70" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="71" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="72" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="73" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="74" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="75" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="76" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="77" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="78" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:P4 O6:P11">
+    <cfRule type="cellIs" dxfId="64" priority="53" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="54" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="55" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="56" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="57" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="60" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="62" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="63" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="64" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="65" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:P5">
+    <cfRule type="cellIs" dxfId="51" priority="40" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="41" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="42" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="43" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="44" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="45" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="48" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="49" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="50" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="51" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="52" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O17:P17">
+    <cfRule type="cellIs" dxfId="38" priority="27" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="28" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="29" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="30" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="32" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="35" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="36" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="37" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="38" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U12:W18">
+    <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="24" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="25" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="26" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4:W11">
     <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>10</formula>
     </cfRule>

--- a/04_memo/map03.xlsx
+++ b/04_memo/map03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9FEE36-F207-4A02-B794-594C660252A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B059F03-F0B9-44AA-A3BD-547D01B52892}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -2275,7 +2275,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14:T15"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2565,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -2694,7 +2694,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -2739,10 +2739,10 @@
         <v>0</v>
       </c>
       <c r="S9" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>1</v>
@@ -2838,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -2886,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="T11" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U11" s="1">
         <v>1</v>
@@ -2919,7 +2919,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H12" s="5">
         <v>1</v>
@@ -2949,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="Q12" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R12" s="4">
         <v>1</v>
@@ -2985,7 +2985,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F13" s="4">
         <v>0</v>
@@ -3030,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U13" s="1">
         <v>1</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>0</v>
@@ -3222,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>

--- a/04_memo/map03.xlsx
+++ b/04_memo/map03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B059F03-F0B9-44AA-A3BD-547D01B52892}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257EC60C-0370-487F-89AE-C1C1E64129A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -2275,7 +2275,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2550,7 +2550,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -2598,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="T7" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U7" s="1">
         <v>1</v>
@@ -2838,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -2886,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="T11" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>1</v>
@@ -2919,7 +2919,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H12" s="5">
         <v>1</v>
@@ -2949,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="Q12" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R12" s="4">
         <v>1</v>
@@ -3207,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H16" s="1">
         <v>1</v>
@@ -3237,7 +3237,7 @@
         <v>1</v>
       </c>
       <c r="Q16" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R16" s="1">
         <v>1</v>
